--- a/biology/Médecine/Hsueh_Jui-yuan/Hsueh_Jui-yuan.xlsx
+++ b/biology/Médecine/Hsueh_Jui-yuan/Hsueh_Jui-yuan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hsueh Jui-yuan (chinois traditionnel : 薛瑞元 ; pinyin : Xuē Ruìyuán) est un homme d'État taïwanais.
 De 2022 à 2024, il occupe le poste de ministre de la Santé et du Bien-être.
@@ -512,9 +524,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hsueh est diplômé d'un doctorat de médecine en 1980 à l'université de médecine de Taipei[1]. Plus tard, il obtient un Master of Laws puis un Bachelor of Laws auprès de l'université nationale de Taïwan, respectivement en 1997 et 2001[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hsueh est diplômé d'un doctorat de médecine en 1980 à l'université de médecine de Taipei. Plus tard, il obtient un Master of Laws puis un Bachelor of Laws auprès de l'université nationale de Taïwan, respectivement en 1997 et 2001.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hsueh Jui-yuan est nommé vice-ministre en août 2017 au ministère de la Santé et du Bien-être, alors que Chen Shih-chung en est le ministre ; il reste à ce poste jusqu'en juillet 2020,[2], date à laquelle il devient ministre délégué[1]. Deux ans plus tard, il succède à Chen Shih-chung au poste de ministre le 18 juillet 2022, ce dernier ayant présenté sa démission afin de se consacrer à sa campagne municipale[2]. Il reste à son poste jusqu'à la fin du deuxième mandat présidentiel de Tsai Ing-wen[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hsueh Jui-yuan est nommé vice-ministre en août 2017 au ministère de la Santé et du Bien-être, alors que Chen Shih-chung en est le ministre ; il reste à ce poste jusqu'en juillet 2020 date à laquelle il devient ministre délégué. Deux ans plus tard, il succède à Chen Shih-chung au poste de ministre le 18 juillet 2022, ce dernier ayant présenté sa démission afin de se consacrer à sa campagne municipale. Il reste à son poste jusqu'à la fin du deuxième mandat présidentiel de Tsai Ing-wen.
 </t>
         </is>
       </c>
